--- a/bh3/547530685823894802_2021-07-15_11-38-42.xlsx
+++ b/bh3/547530685823894802_2021-07-15_11-38-42.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-26 15:02:36</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44403.62680555556</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -610,10 +624,8 @@
           <t>4949660891</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-20 11:15:34</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44397.46914351852</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-19 15:15:47</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44396.63596064815</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>4912952055</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:11:43</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44396.42480324074</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -831,10 +839,8 @@
           <t>4912952055</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-19 06:55:04</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44396.28824074074</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -898,10 +904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:31:54</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44395.56381944445</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -977,10 +981,8 @@
           <t>4930326439</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-17 18:05:41</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44394.75394675926</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1052,10 +1054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-17 18:00:27</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44394.7503125</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1127,10 +1127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:13:07</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44394.59244212963</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1206,10 +1204,8 @@
           <t>4925610779</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:21:26</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44394.01488425926</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1277,10 +1273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:40:30</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44393.98645833333</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
@@ -1348,10 +1342,8 @@
           <t>4915227369</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:46:08</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44393.9487037037</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1419,10 +1411,8 @@
           <t>4924815593</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:42:04</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44393.94587962963</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1497,10 +1487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:36:56</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44393.94231481481</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1568,10 +1556,8 @@
           <t>4923664534</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:16:42</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44393.92826388889</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1648,10 +1634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:07:14</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44393.92168981482</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1711,10 +1695,8 @@
           <t>4923664534</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:22:42</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44393.84909722222</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1778,10 +1760,8 @@
           <t>4921246301</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-16 15:01:08</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44393.62578703704</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1849,10 +1829,8 @@
           <t>4921246301</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-16 14:26:40</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44393.60185185185</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1924,10 +1902,8 @@
           <t>4914028693</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-16 14:25:59</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44393.60137731482</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1991,10 +1967,8 @@
           <t>4914028693</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-16 14:25:14</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44393.60085648148</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2058,10 +2032,8 @@
           <t>4921246301</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-16 14:24:44</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44393.60050925926</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2129,10 +2101,8 @@
           <t>4921222418</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-16 14:21:37</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44393.5983449074</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2196,10 +2166,8 @@
           <t>4920437539</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-16 12:21:38</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44393.51502314815</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2275,10 +2243,8 @@
           <t>4919643384</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-16 10:11:02</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44393.4243287037</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2338,10 +2304,8 @@
           <t>4918383072</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:15:00</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44393.05208333334</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2413,10 +2377,8 @@
           <t>4915227369</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:04:58</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44393.04511574074</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2484,10 +2446,8 @@
           <t>4915227369</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:38:31</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44393.02674768519</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2555,10 +2515,8 @@
           <t>4914125768</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:38:26</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44393.02668981482</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2626,10 +2584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:32:50</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44393.02280092592</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2693,10 +2649,8 @@
           <t>4918178442</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:31:30</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44393.021875</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2761,10 +2715,8 @@
           <t>4918080884</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:14:44</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44393.01023148148</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2842,10 +2794,8 @@
           <t>4917357355</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:13:34</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44393.00942129629</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2921,10 +2871,8 @@
           <t>4918053959</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:11:29</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44393.00797453704</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3002,10 +2950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:10:13</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44393.00709490741</v>
       </c>
       <c r="I36" t="n">
         <v>2</v>
@@ -3081,10 +3027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:15:38</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44392.96918981482</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3160,10 +3104,8 @@
           <t>4917357355</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:37:42</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44392.94284722222</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3227,10 +3169,8 @@
           <t>4917337630</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:35:22</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44392.94122685185</v>
       </c>
       <c r="I39" t="n">
         <v>3</v>
@@ -3294,10 +3234,8 @@
           <t>4917316689</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:32:21</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44392.93913194445</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3361,10 +3299,8 @@
           <t>4917315556</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:31:55</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44392.93883101852</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3428,10 +3364,8 @@
           <t>4917231305</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:21:25</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44392.93153935186</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3491,10 +3425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:16:36</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44392.92819444444</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3566,10 +3498,8 @@
           <t>4917098296</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:05:20</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44392.92037037037</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3637,10 +3567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:05:12</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44392.92027777778</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3712,10 +3640,8 @@
           <t>4916570380</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:55:45</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44392.87204861111</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3783,10 +3709,8 @@
           <t>4916538612</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:52:29</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44392.86978009259</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3862,10 +3786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:12:22</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44392.8419212963</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3933,10 +3855,8 @@
           <t>4916167375</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:00:26</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44392.83363425926</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4000,10 +3920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:20:48</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44392.80611111111</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4068,10 +3986,8 @@
           <t>4915857929</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:17:35</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44392.80387731481</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4139,10 +4055,8 @@
           <t>4915838649</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:15:00</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44392.80208333334</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
@@ -4214,10 +4128,8 @@
           <t>4915686708</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:54:18</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44392.78770833334</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4293,10 +4205,8 @@
           <t>4915522084</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:32:02</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44392.77224537037</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4364,10 +4274,8 @@
           <t>4915503223</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:29:49</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44392.77070601852</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4435,10 +4343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:27:23</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44392.7690162037</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4510,10 +4416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:11:46</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44392.75817129629</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4589,10 +4493,8 @@
           <t>4915250617</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:54:51</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44392.74642361111</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4660,10 +4562,8 @@
           <t>4915227369</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:52:12</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44392.74458333333</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4731,10 +4631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:40:41</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44392.73658564815</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4802,10 +4700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:37:25</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44392.69265046297</v>
       </c>
       <c r="I61" t="n">
         <v>2</v>
@@ -4873,10 +4769,8 @@
           <t>4914532673</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:02:12</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44392.66819444444</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4952,10 +4846,8 @@
           <t>4914270644</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:37:15</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44392.65086805556</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5023,10 +4915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:24:02</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44392.64168981482</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5094,10 +4984,8 @@
           <t>4914277426</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:17:42</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44392.63729166667</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5169,10 +5057,8 @@
           <t>4914270644</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:15:55</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44392.63605324074</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5240,10 +5126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:14:12</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44392.63486111111</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5311,10 +5195,8 @@
           <t>4914251630</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:13:42</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44392.63451388889</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5382,10 +5264,8 @@
           <t>4914230331</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:08:58</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44392.63122685185</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5453,10 +5333,8 @@
           <t>4914125768</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:04:11</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44392.6279050926</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5520,10 +5398,8 @@
           <t>4914125768</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:03:14</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44392.62724537037</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5587,10 +5463,8 @@
           <t>4914182452</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:01:13</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44392.62584490741</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5666,10 +5540,8 @@
           <t>4914125768</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:53:15</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44392.6203125</v>
       </c>
       <c r="I73" t="n">
         <v>2</v>
@@ -5737,10 +5609,8 @@
           <t>4914132087</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:52:22</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44392.61969907407</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5816,10 +5686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:51:57</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44392.61940972223</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -5895,10 +5763,8 @@
           <t>4914028693</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:50:52</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44392.61865740741</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5962,10 +5828,8 @@
           <t>4914125768</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:50:51</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44392.61864583333</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6029,10 +5893,8 @@
           <t>4912968862</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:49:31</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44392.61771990741</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6096,10 +5958,8 @@
           <t>4914103212</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:47:31</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44392.61633101852</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6163,10 +6023,8 @@
           <t>4914028693</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:47:23</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44392.61623842592</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6230,10 +6088,8 @@
           <t>4913310634</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:46:52</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44392.61587962963</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6297,10 +6153,8 @@
           <t>4914080491</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:42:43</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44392.61299768519</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6372,10 +6226,8 @@
           <t>4914043147</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:36:27</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44392.60864583333</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6443,10 +6295,8 @@
           <t>4914028693</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:33:59</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44392.60693287037</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6510,10 +6360,8 @@
           <t>4912895880</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:31:37</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44392.60528935185</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6589,10 +6437,8 @@
           <t>4913993579</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:28:17</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44392.60297453704</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6656,10 +6502,8 @@
           <t>4913986768</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:25:52</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44392.6012962963</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6723,10 +6567,8 @@
           <t>4912895880</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:22:34</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44392.59900462963</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6810,10 +6652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:20:54</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44392.59784722222</v>
       </c>
       <c r="I89" t="n">
         <v>7</v>
@@ -6877,10 +6717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:11:16</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44392.59115740741</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -6948,10 +6786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:10:34</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44392.5906712963</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7024,10 +6860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:51:14</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44392.57724537037</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7095,10 +6929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:45:41</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44392.5733912037</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7177,10 +7009,8 @@
           <t>4913663885</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:32:05</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44392.56394675926</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7248,10 +7078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:30:16</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44392.56268518518</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7315,10 +7143,8 @@
           <t>4913593264</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:22:12</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44392.55708333333</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7394,10 +7220,8 @@
           <t>4913554068</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:16:06</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44392.55284722222</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7469,10 +7293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:10:44</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44392.54912037037</v>
       </c>
       <c r="I98" t="n">
         <v>2</v>
@@ -7548,10 +7370,8 @@
           <t>4913502997</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:08:58</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44392.54789351852</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7615,10 +7435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:07:09</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44392.54663194445</v>
       </c>
       <c r="I100" t="n">
         <v>2</v>
@@ -7682,10 +7500,8 @@
           <t>4913488672</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:07:08</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44392.54662037037</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7761,10 +7577,8 @@
           <t>4913458656</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:58</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44392.54372685185</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7836,10 +7650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:34</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44392.54344907407</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7907,10 +7719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:00:11</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44392.54179398148</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7974,10 +7784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:59:00</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44392.54097222222</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8041,10 +7849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:58:26</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44392.5405787037</v>
       </c>
       <c r="I106" t="n">
         <v>3</v>
@@ -8112,10 +7918,8 @@
           <t>4913419359</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:58:11</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44392.54040509259</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8179,10 +7983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:57:48</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44392.54013888889</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8254,10 +8056,8 @@
           <t>4913413422</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:56:45</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44392.53940972222</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8321,10 +8121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:56:32</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44392.53925925926</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8388,10 +8186,8 @@
           <t>4913402261</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:55:27</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44392.53850694445</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8455,10 +8251,8 @@
           <t>4913364427</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:51:06</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44392.53548611111</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8534,10 +8328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:50:53</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44392.53533564815</v>
       </c>
       <c r="I113" t="n">
         <v>5</v>
@@ -8601,10 +8393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:48:20</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44392.53356481482</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -8672,10 +8462,8 @@
           <t>4913337344</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:46:38</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44392.53238425926</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8739,10 +8527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:46:25</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44392.53223379629</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8806,10 +8592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:45:46</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44392.53178240741</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -8873,10 +8657,8 @@
           <t>4913310634</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:45:39</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44392.53170138889</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8940,10 +8722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:45:18</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44392.53145833333</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9007,10 +8787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:44:55</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44392.53119212963</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9082,10 +8860,8 @@
           <t>4913310906</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:43:38</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44392.53030092592</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9161,10 +8937,8 @@
           <t>4913310634</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:43:32</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44392.53023148148</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9236,10 +9010,8 @@
           <t>4913302076</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:42:15</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44392.52934027778</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9311,10 +9083,8 @@
           <t>4913293860</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:41:40</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44392.52893518518</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9390,10 +9160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:40:52</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44392.52837962963</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9457,10 +9225,8 @@
           <t>4913283074</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:40:43</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44392.52827546297</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9536,10 +9302,8 @@
           <t>4913274035</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:39:15</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44392.52725694444</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9611,10 +9375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:38:37</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44392.52681712963</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9682,10 +9444,8 @@
           <t>4913262356</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:37:25</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44392.52598379629</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9753,10 +9513,8 @@
           <t>4913252307</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:36:29</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44392.52533564815</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9828,10 +9586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:36:28</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44392.52532407407</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9891,10 +9647,8 @@
           <t>4913256686</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:36:28</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44392.52532407407</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9970,10 +9724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:35:22</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44392.52456018519</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10045,10 +9797,8 @@
           <t>4913243143</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:35:08</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44392.52439814815</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10116,10 +9866,8 @@
           <t>4913213148</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:31:21</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44392.52177083334</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10187,10 +9935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:31:10</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44392.52164351852</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10262,10 +10008,8 @@
           <t>4913200796</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:29:11</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44392.5202662037</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10329,10 +10073,8 @@
           <t>4913189251</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:28:35</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44392.51984953704</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10400,10 +10142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:28:17</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44392.5196412037</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10468,10 +10208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:28:04</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44392.51949074074</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10531,10 +10269,8 @@
           <t>4913176810</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:26:25</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44392.51834490741</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10606,10 +10342,8 @@
           <t>4912968862</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:26:05</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44392.51811342593</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10685,10 +10419,8 @@
           <t>4912968862</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:25:47</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44392.51790509259</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10764,10 +10496,8 @@
           <t>4913168465</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:25:36</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44392.51777777778</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10839,10 +10569,8 @@
           <t>4913156766</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:23:39</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44392.51642361111</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10906,10 +10634,8 @@
           <t>4913149893</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:23:34</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44392.51636574074</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10985,10 +10711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:22:54</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44392.51590277778</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11053,10 +10777,8 @@
           <t>4913133536</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:20:57</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44392.51454861111</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11120,10 +10842,8 @@
           <t>4913127634</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:19:59</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44392.51387731481</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11191,10 +10911,8 @@
           <t>4913106614</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:17:01</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44392.51181712963</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11258,10 +10976,8 @@
           <t>4913094631</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:16:12</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44392.51125</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11329,10 +11045,8 @@
           <t>4913088883</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:14:57</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44392.51038194444</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11396,10 +11110,8 @@
           <t>4913085507</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:13:35</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44392.50943287037</v>
       </c>
       <c r="I153" t="n">
         <v>2</v>
@@ -11459,10 +11171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:12:19</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44392.50855324074</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11534,10 +11244,8 @@
           <t>4913061439</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:10:59</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44392.50762731482</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11609,10 +11317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:10:53</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44392.50755787037</v>
       </c>
       <c r="I156" t="n">
         <v>2</v>
@@ -11676,10 +11382,8 @@
           <t>4913058153</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:10:32</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44392.50731481481</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11755,10 +11459,8 @@
           <t>4912896304</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:16</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44392.50574074074</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11818,10 +11520,8 @@
           <t>4913042597</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:12</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44392.50569444444</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11893,10 +11593,8 @@
           <t>4912896304</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:06:57</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44392.50482638889</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -11968,10 +11666,8 @@
           <t>4912907499</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:06:27</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44392.50447916667</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12047,10 +11743,8 @@
           <t>4913018608</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:05:51</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44392.5040625</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12126,10 +11820,8 @@
           <t>4913018282</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:05:43</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44392.5039699074</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12193,10 +11885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:05:34</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44392.50386574074</v>
       </c>
       <c r="I164" t="n">
         <v>2</v>
@@ -12272,10 +11962,8 @@
           <t>4913012547</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:03:59</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44392.5027662037</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12343,10 +12031,8 @@
           <t>4913012060</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:03:46</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44392.50261574074</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12414,10 +12100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:03:01</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44392.50209490741</v>
       </c>
       <c r="I167" t="n">
         <v>3</v>
@@ -12489,10 +12173,8 @@
           <t>4912907499</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:02:43</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44392.50188657407</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12568,10 +12250,8 @@
           <t>4912988670</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:52</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44392.50129629629</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12639,10 +12319,8 @@
           <t>4912905328</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:43</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44392.50119212963</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12718,10 +12396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:17</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44392.5008912037</v>
       </c>
       <c r="I171" t="n">
         <v>2</v>
@@ -12799,10 +12475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:05</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44392.50075231482</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12870,10 +12544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:54</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44392.500625</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -12949,10 +12621,8 @@
           <t>4912978286</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:10</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44392.50011574074</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13028,10 +12698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:07</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44392.50008101852</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13107,10 +12775,8 @@
           <t>4912977910</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:01</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44392.50001157408</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13186,10 +12852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:59:59</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44392.49998842592</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13253,10 +12917,8 @@
           <t>4912895880</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:59:45</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44392.49982638889</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13332,10 +12994,8 @@
           <t>4912968862</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:59:44</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44392.49981481482</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13407,10 +13067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:59:42</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44392.49979166667</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13482,10 +13140,8 @@
           <t>4912970809</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:58:40</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44392.49907407408</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13557,10 +13213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:58:39</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44392.4990625</v>
       </c>
       <c r="I182" t="n">
         <v>2</v>
@@ -13628,10 +13282,8 @@
           <t>4912968862</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:58:12</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44392.49875</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13699,10 +13351,8 @@
           <t>4912958561</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:57:40</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44392.49837962963</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13778,10 +13428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:57:15</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44392.49809027778</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13853,10 +13501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:57:14</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44392.49807870371</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13924,10 +13570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:57:11</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44392.49804398148</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13995,10 +13639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:56:54</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44392.49784722222</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14074,10 +13716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:56:36</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44392.49763888889</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14141,10 +13781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:56:35</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44392.49762731481</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14216,10 +13854,8 @@
           <t>4912965322</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:56:34</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44392.49761574074</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14295,10 +13931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:56:16</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44392.49740740741</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14370,10 +14004,8 @@
           <t>4912954070</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:56:02</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44392.49724537037</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14437,10 +14069,8 @@
           <t>4912949268</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:56:00</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44392.49722222222</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14504,10 +14134,8 @@
           <t>4912920324</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:55:53</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44392.4971412037</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14579,10 +14207,8 @@
           <t>4912907499</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:55:49</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44392.4970949074</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14658,10 +14284,8 @@
           <t>4912953157</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:55:36</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44392.49694444444</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14731,10 +14355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:55:17</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44392.49672453704</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14806,10 +14428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:55:16</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44392.49671296297</v>
       </c>
       <c r="I199" t="n">
         <v>6</v>
@@ -14885,10 +14505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:55:06</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44392.49659722222</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14956,10 +14574,8 @@
           <t>4912952055</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:55:05</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44392.49658564815</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15027,10 +14643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:54:37</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44392.49626157407</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15094,10 +14708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:54:31</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44392.49619212963</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15173,10 +14785,8 @@
           <t>4912907499</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:54:31</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44392.49619212963</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15252,10 +14862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:54:30</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44392.49618055556</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15328,10 +14936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:54:26</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44392.49613425926</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15391,10 +14997,8 @@
           <t>4912934894</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:54:25</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44392.49612268519</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15470,10 +15074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:54:23</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44392.49609953703</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15540,10 +15142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:54:16</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44392.49601851852</v>
       </c>
       <c r="I209" t="n">
         <v>2</v>
@@ -15603,10 +15203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:54:09</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44392.4959375</v>
       </c>
       <c r="I210" t="n">
         <v>2</v>
@@ -15666,10 +15264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:54:02</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44392.49585648148</v>
       </c>
       <c r="I211" t="n">
         <v>5</v>
@@ -15746,10 +15342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:54:01</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44392.4958449074</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15809,10 +15403,8 @@
           <t>4912934894</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:53:57</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44392.49579861111</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15895,10 +15487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:53:54</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44392.49576388889</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15958,10 +15548,8 @@
           <t>4912907499</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:53:54</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44392.49576388889</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16037,10 +15625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:53:44</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44392.49564814815</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16116,10 +15702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:53:41</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44392.49561342593</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16187,10 +15771,8 @@
           <t>4912929902</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:53:40</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44392.49560185185</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16266,10 +15848,8 @@
           <t>4912938681</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:53:32</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44392.49550925926</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16345,10 +15925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:53:18</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44392.49534722222</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16424,10 +16002,8 @@
           <t>4912928267</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:52:57</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44392.49510416666</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16499,10 +16075,8 @@
           <t>4912936906</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:52:44</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44392.4949537037</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16578,10 +16152,8 @@
           <t>4912931868</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:52:32</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44392.49481481482</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16650,10 +16222,8 @@
           <t>4912936464</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:52:32</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44392.49481481482</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16729,10 +16299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:52:12</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44392.49458333333</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16808,10 +16376,8 @@
           <t>4912862465</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:52:04</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44392.49449074074</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16879,10 +16445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:51:59</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44392.49443287037</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16954,10 +16518,8 @@
           <t>4912935034</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:51:54</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44392.494375</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17029,10 +16591,8 @@
           <t>4912907499</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:51:50</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44392.4943287037</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17108,10 +16668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:51:49</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44392.49431712963</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17183,10 +16741,8 @@
           <t>4912930287</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:51:47</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44392.49429398148</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17250,10 +16806,8 @@
           <t>4912925399</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:51:39</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44392.49420138889</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17317,10 +16871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:51:27</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44392.4940625</v>
       </c>
       <c r="I233" t="n">
         <v>22</v>
@@ -17396,10 +16948,8 @@
           <t>4912919496</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:51:25</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44392.49403935186</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17475,10 +17025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:51:20</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44392.49398148148</v>
       </c>
       <c r="I235" t="n">
         <v>10</v>
@@ -17546,10 +17094,8 @@
           <t>4912923603</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:51:16</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44392.49393518519</v>
       </c>
       <c r="I236" t="n">
         <v>2</v>
@@ -17625,10 +17171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:51:05</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44392.49380787037</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17688,10 +17232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:51:05</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44392.49380787037</v>
       </c>
       <c r="I238" t="n">
         <v>7</v>
@@ -17767,10 +17309,8 @@
           <t>4912922877</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:50:55</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44392.49369212963</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17838,10 +17378,8 @@
           <t>4912917800</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:50:37</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44392.49348379629</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17909,10 +17447,8 @@
           <t>4912913196</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:50:37</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44392.49348379629</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17980,10 +17516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:50:34</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44392.49344907407</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18051,10 +17585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:50:30</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44392.49340277778</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18126,10 +17658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:50:20</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44392.49328703704</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18201,10 +17731,8 @@
           <t>4912921457</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:50:15</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44392.49322916667</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18272,10 +17800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:50:10</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44392.49317129629</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18351,10 +17877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:50:09</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44392.49315972222</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18426,10 +17950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:49:58</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44392.49303240741</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18501,10 +18023,8 @@
           <t>4912916388</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:49:57</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44392.49302083333</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18576,10 +18096,8 @@
           <t>4912920324</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:49:43</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44392.49285879629</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18647,10 +18165,8 @@
           <t>4912915728</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:49:38</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44392.49280092592</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18722,10 +18238,8 @@
           <t>4912904914</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:49:15</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44392.49253472222</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18797,10 +18311,8 @@
           <t>4912909043</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:49:08</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44392.4924537037</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18876,10 +18388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:49:04</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44392.49240740741</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18947,10 +18457,8 @@
           <t>4912904063</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:48:51</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44392.49225694445</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19026,10 +18534,8 @@
           <t>4912903986</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:48:49</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44392.4922337963</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19097,10 +18603,8 @@
           <t>4912908034</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:48:41</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44392.4921412037</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19164,10 +18668,8 @@
           <t>4912905328</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:48:33</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44392.49204861111</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19239,10 +18741,8 @@
           <t>4912907499</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:48:26</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44392.49196759259</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19318,10 +18818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:48:17</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44392.49186342592</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19397,10 +18895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:48:16</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44392.49185185185</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19472,10 +18968,8 @@
           <t>4912902743</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:48:14</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44392.49182870371</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19551,10 +19045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:48:05</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44392.49172453704</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19614,10 +19106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:48:03</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44392.49170138889</v>
       </c>
       <c r="I264" t="n">
         <v>4</v>
@@ -19693,10 +19183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:48:02</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44392.49168981481</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19764,10 +19252,8 @@
           <t>4912897174</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:47:53</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44392.49158564815</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19839,10 +19325,8 @@
           <t>4912901938</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:47:51</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44392.4915625</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19914,10 +19398,8 @@
           <t>4912896510</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:47:36</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44392.49138888889</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19989,10 +19471,8 @@
           <t>4912885686</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:47:33</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44392.49135416667</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20068,10 +19548,8 @@
           <t>4912896304</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:47:30</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44392.49131944445</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20131,10 +19609,8 @@
           <t>4912905328</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:47:25</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44392.49126157408</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20210,10 +19686,8 @@
           <t>4912895880</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:47:19</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44392.49119212963</v>
       </c>
       <c r="I272" t="n">
         <v>4</v>
@@ -20289,10 +19763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:47:02</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44392.49099537037</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20360,10 +19832,8 @@
           <t>4912894312</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:46:57</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44392.4909375</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20435,10 +19905,8 @@
           <t>4912889193</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:46:31</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44392.49063657408</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20506,10 +19974,8 @@
           <t>4912888779</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:46:20</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44392.49050925926</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20581,10 +20047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:46:17</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44392.49047453704</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20656,10 +20120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:46:02</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44392.49030092593</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20735,10 +20197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:45:58</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44392.49025462963</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20802,10 +20262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:45:52</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44392.49018518518</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20869,10 +20327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:45:49</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44392.49015046296</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -20940,10 +20396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:45:42</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44392.49006944444</v>
       </c>
       <c r="I282" t="n">
         <v>9</v>
@@ -21015,10 +20469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:45:40</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44392.4900462963</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21094,10 +20546,8 @@
           <t>4912887357</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:45:40</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44392.4900462963</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21173,10 +20623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:45:38</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44392.49002314815</v>
       </c>
       <c r="I285" t="n">
         <v>13</v>
@@ -21248,10 +20696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:45:26</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44392.48988425926</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21323,10 +20769,8 @@
           <t>4912886315</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:45:11</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44392.48971064815</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21394,10 +20838,8 @@
           <t>4912879001</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:44:57</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44392.48954861111</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21473,10 +20915,8 @@
           <t>4912885686</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:44:54</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44392.48951388889</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21552,10 +20992,8 @@
           <t>4912880592</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:44:50</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44392.48946759259</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21628,10 +21066,8 @@
           <t>4912885380</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:44:46</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44392.4894212963</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21707,10 +21143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:44:44</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44392.48939814815</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21782,10 +21216,8 @@
           <t>4912879499</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:44:43</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44392.48938657407</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21857,10 +21289,8 @@
           <t>4912879487</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:44:43</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44392.48938657407</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21932,10 +21362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:44:40</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44392.48935185185</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22007,10 +21435,8 @@
           <t>4912879001</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:44:29</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44392.48922453704</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22078,10 +21504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:44:10</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44392.48900462963</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22149,10 +21573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:44:02</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44392.48891203704</v>
       </c>
       <c r="I298" t="n">
         <v>4</v>
@@ -22228,10 +21650,8 @@
           <t>4912877891</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:43:59</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44392.48887731481</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22307,10 +21727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:43:59</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44392.48887731481</v>
       </c>
       <c r="I300" t="n">
         <v>10</v>
@@ -22378,10 +21796,8 @@
           <t>4912873515</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:43:55</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44392.48883101852</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22453,10 +21869,8 @@
           <t>4912868542</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:43:51</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44392.48878472222</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22524,10 +21938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:43:49</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44392.48876157407</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22595,10 +22007,8 @@
           <t>4912877193</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:43:40</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44392.4886574074</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22662,10 +22072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:43:32</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44392.48856481481</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22733,10 +22141,8 @@
           <t>4912876678</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:43:26</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44392.48849537037</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22812,10 +22218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:43:22</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44392.48844907407</v>
       </c>
       <c r="I307" t="n">
         <v>3</v>
@@ -22887,10 +22291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:43:15</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44392.48836805556</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22958,10 +22360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:43:13</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44392.4883449074</v>
       </c>
       <c r="I309" t="n">
         <v>4</v>
@@ -23037,10 +22437,8 @@
           <t>4912871990</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:43:13</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44392.4883449074</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23112,10 +22510,8 @@
           <t>4912862465</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:43:13</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44392.4883449074</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23187,10 +22583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:43:09</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44392.48829861111</v>
       </c>
       <c r="I312" t="n">
         <v>18</v>
@@ -23267,10 +22661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:43:06</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44392.48826388889</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23347,10 +22739,8 @@
           <t>4912875940</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:43:05</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44392.48825231481</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23426,10 +22816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:42:58</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44392.4881712963</v>
       </c>
       <c r="I315" t="n">
         <v>2</v>
@@ -23501,10 +22889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:42:42</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44392.48798611111</v>
       </c>
       <c r="I316" t="n">
         <v>2</v>
@@ -23580,10 +22966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:42:39</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44392.48795138889</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23659,10 +23043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:42:28</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44392.48782407407</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23722,10 +23104,8 @@
           <t>4912864518</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:42:26</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44392.48780092593</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -23793,10 +23173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:42:16</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44392.48768518519</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23864,10 +23242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:42:13</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44392.48765046296</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23939,10 +23315,8 @@
           <t>4912863588</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:42:00</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44392.4875</v>
       </c>
       <c r="I322" t="n">
         <v>2</v>
@@ -24018,10 +23392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:55</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44392.48744212963</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24089,10 +23461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:53</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44392.48741898148</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24156,10 +23526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:52</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44392.48740740741</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -24223,10 +23591,8 @@
           <t>4912863229</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:51</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44392.48739583333</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24298,10 +23664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:45</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44392.48732638889</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24369,10 +23733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:42</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44392.48729166666</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24450,10 +23812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:40</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44392.48726851852</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24525,10 +23885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:37</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44392.4872337963</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24605,10 +23963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:36</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44392.48722222223</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24680,10 +24036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:36</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44392.48722222223</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24751,10 +24105,8 @@
           <t>4912858443</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:36</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44392.48722222223</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24830,10 +24182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:31</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44392.48716435185</v>
       </c>
       <c r="I334" t="n">
         <v>4</v>
@@ -24909,10 +24259,8 @@
           <t>4912862465</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:29</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44392.4871412037</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24980,10 +24328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:09</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44392.48690972223</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25047,10 +24393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:07</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44392.48688657407</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25114,10 +24458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:02</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44392.4868287037</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25189,10 +24531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:02</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44392.4868287037</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25260,10 +24600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:40:40</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44392.48657407407</v>
       </c>
       <c r="I340" t="n">
         <v>121</v>
@@ -25335,10 +24673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:40:40</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44392.48657407407</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25414,10 +24750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:40:36</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44392.48652777778</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25485,10 +24819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:40:35</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44392.4865162037</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25552,10 +24884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:40:30</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44392.48645833333</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25627,10 +24957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:40:26</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44392.48641203704</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25706,10 +25034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:40:21</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44392.48635416666</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25777,10 +25103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:40:18</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44392.48631944445</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25852,10 +25176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:40:04</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44392.48615740741</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -25923,10 +25245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:57</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44392.48607638889</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26002,10 +25322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:54</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44392.48604166666</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26073,10 +25391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:53</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44392.48603009259</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26148,10 +25464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:53</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44392.48603009259</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26227,10 +25541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:50</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44392.48599537037</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26302,10 +25614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:48</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44392.48597222222</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26381,10 +25691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:47</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44392.48596064815</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26456,10 +25764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:45</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44392.4859375</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26532,10 +25838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:44</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44392.48592592592</v>
       </c>
       <c r="I357" t="n">
         <v>88</v>
@@ -26607,10 +25911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:42</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44392.48590277778</v>
       </c>
       <c r="I358" t="n">
         <v>310</v>
@@ -26670,10 +25972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:40</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44392.48587962963</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26737,10 +26037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:36</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44392.48583333333</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26816,10 +26114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:35</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44392.48582175926</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26891,10 +26187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:33</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44392.48579861111</v>
       </c>
       <c r="I362" t="n">
         <v>11</v>
@@ -26970,10 +26264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:30</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44392.48576388889</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27037,10 +26329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:28</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44392.48574074074</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27100,10 +26390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:24</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44392.48569444445</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27167,10 +26455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:17</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44392.48561342592</v>
       </c>
       <c r="I366" t="n">
         <v>33</v>
@@ -27246,10 +26532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:17</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44392.48561342592</v>
       </c>
       <c r="I367" t="n">
         <v>5</v>
@@ -27313,10 +26597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:00</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44392.48541666667</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
